--- a/Documentation/Follow-up register.xlsx
+++ b/Documentation/Follow-up register.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c56e8f5f32bf7d06/Desktop/Napier/Group Project/Reports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c56e8f5f32bf7d06/Desktop/Napier/Group Project/git/MENS-SHED-SOC09109/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="134" documentId="8_{52C24ED6-ED8F-4243-9804-A716988678B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BD3D9B2-2624-4FFF-8807-B57D2E089377}"/>
+  <xr:revisionPtr revIDLastSave="160" documentId="8_{52C24ED6-ED8F-4243-9804-A716988678B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{538F0333-DB55-44E3-9282-94ABEE06C3E3}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{608C6C86-23A8-744E-AF3C-CFB8D61FCACB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{608C6C86-23A8-744E-AF3C-CFB8D61FCACB}"/>
   </bookViews>
   <sheets>
     <sheet name="RICs" sheetId="2" r:id="rId1"/>
@@ -183,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="74">
   <si>
     <t>Help information</t>
   </si>
@@ -378,6 +378,33 @@
   </si>
   <si>
     <t>Application security compromise</t>
+  </si>
+  <si>
+    <t>Template html schema</t>
+  </si>
+  <si>
+    <t>Change medthods</t>
+  </si>
+  <si>
+    <t>JB, DB, RM, DH.</t>
+  </si>
+  <si>
+    <t>For the common ground and robustness of the dtabase</t>
+  </si>
+  <si>
+    <t>Database Technology SQLite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alternative to SQAlchemy </t>
+  </si>
+  <si>
+    <t>RM, DH, JJ</t>
+  </si>
+  <si>
+    <t>RM, JB, DB, DH</t>
+  </si>
+  <si>
+    <t>Continuity simplicity and reducing application size</t>
   </si>
 </sst>
 </file>
@@ -474,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -504,6 +531,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -878,7 +906,7 @@
   <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -890,7 +918,7 @@
     <col min="5" max="5" width="9.4375" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.4375" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.1875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.3125" customWidth="1"/>
     <col min="9" max="9" width="17.6875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.1875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.25" bestFit="1" customWidth="1"/>
@@ -898,49 +926,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
       <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
@@ -1162,15 +1190,81 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="F10" s="5" t="str" cm="1">
+      <c r="A10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="5">
+        <v>70</v>
+      </c>
+      <c r="E10" s="5">
+        <v>80</v>
+      </c>
+      <c r="F10" s="5" cm="1">
         <f t="array" ref="F10">IF(OR(ISBLANK(D10),ISBLANK(E10)),"",_xlfn.IFS(AND(D10&lt;35, E10&lt;35), 0, OR(AND(D10&gt;=35,E10&gt;=65), AND(D10&gt;=65,E10&gt;=35)), 2, TRUE, 1))</f>
-        <v/>
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="13">
+        <v>44984</v>
+      </c>
+      <c r="L10" s="13">
+        <v>44984</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="F11" s="5" t="str" cm="1">
+      <c r="A11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="5">
+        <v>80</v>
+      </c>
+      <c r="E11" s="5">
+        <v>80</v>
+      </c>
+      <c r="F11" s="5" cm="1">
         <f t="array" ref="F11">IF(OR(ISBLANK(D11),ISBLANK(E11)),"",_xlfn.IFS(AND(D11&lt;35, E11&lt;35), 0, OR(AND(D11&gt;=35,E11&gt;=65), AND(D11&gt;=65,E11&gt;=35)), 2, TRUE, 1))</f>
-        <v/>
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="13">
+        <v>44984</v>
+      </c>
+      <c r="L11" s="13">
+        <v>44984</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.5">
@@ -1816,7 +1910,7 @@
       </c>
       <c r="D2" s="9">
         <f>COUNTIFS(RICs!D:D,"&gt;=65",RICs!E:E,"&gt;=65")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="70.05" customHeight="1" x14ac:dyDescent="0.5">
